--- a/assets/disciplinas/LOB1258.xlsx
+++ b/assets/disciplinas/LOB1258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EA-6</t>
+    <t>EA-7</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -142,11 +142,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1255 -  Hidrologia Aplicada  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ4083 -  Fenômenos de Transporte I  (Requisito)
+    <t xml:space="preserve">LOB1217 -  Operações Unitárias e Processos  (Requisito fraco)
 </t>
   </si>
 </sst>
@@ -503,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -756,14 +752,6 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/disciplinas/LOB1258.xlsx
+++ b/assets/disciplinas/LOB1258.xlsx
@@ -40,7 +40,7 @@
     <t>Créditos-aula:</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
     <t>Créditos-trabalho</t>
@@ -52,13 +52,13 @@
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>60 h</t>
+    <t>30 h</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -91,25 +91,25 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Escoamento permanente uniforme em condutos forçados e perdas de carga nas tubulações. Instalações de bombeamento e bombas hidráulicas. Escoamento permanente uniforme em condutos livres, resistência ao escoamento e perdas de carga nos canais naturais e artificiais. Estudo da carga específica em canais. Movimento gradualmente variado e cálculo da linha d’água. Introdução aos fenômenos transitórios em condutos livres.</t>
+    <t>Escoamento permanente uniforme em condutos forçados e perdas de carga nas tubulações. Instalações de bombeamento e bombas hidráulicas. Escoamento permanente uniforme em condutos livres, resistência ao escoamento e perdas de carga nos canais naturais e artificiais. Estudo da carga específica em canais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
-    <t>Permanent flow in pressure conduits. Head losses in pipelines. Pumping stations and hydraulic pumps. Permanente flow in free surface conduits, head losses in natural and artificial channels. Specific Energy and gradually varied flow computation in channels. Non-permanent flow in channels and waves.</t>
+    <t>Permanent flow in pressure conduits. Head losses in pipelines. Pumping stations and hydraulic pumps. Permanente flow in free surface conduits, head losses in natural and artificial channels. Specific Energy in channels.</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>- Hidrostática, piezometria, conservação da massa e quantidade de movimento- Escoamentos Permanentes em Condutos Forçados. - Resistência ao Escoamento e Perdas de Carga.- Bombas e sistemas de recalque.- Escoamento Permanente Uniforme em Condutos Livres. - Resistência ao escoamento e Perdas de Carga.- Canais regulares e naturais. Carga Específica.- Escoamento Permanente Gradualmente Variado. Cálculo da linha d’água.- Ressalto Hidráulico e dissipação de energia.</t>
+    <t>- Hidrostática,- piezometria,- conservação da massa e quantidade de movimento,- Escoamentos Permanentes em Condutos Forçados,- Resistência ao Escoamento e Perdas de Carga,- Bombas e sistemas de recalque,- Escoamento Permanente Uniforme em Condutos Livres,- Resistência ao escoamento e Perdas de Carga,- Canais regulares e naturais,- Carga Específica,- Escoamento Permanente Gradualmente Variado,- Cálculo da linha d’água,- Ressalto Hidráulico.</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
-    <t>- Hidrostatic, pressure, mass and momentum conservation laws.- Flow in closed Conduits. - Friction forces and head losses.- Pumps and Pumping systems- Uniform Flow in open channels. Friction and Head losses- Natural and Artificial Channels- Gradually Varied Flow in open channels. Water profile computations- Hydraulic Jump and Energy Dissipation- Mas and Energy Waves</t>
+    <t>- Hydrostatic,- piezometry,- conservation of mass and amount of movement,- Permanent flows in Pipes,- Resistance to Flow and Load Losses,- Pumps and discharge systems,- Uniform Permanent Flow in Free Flues,- Resistance to flow and head losses,- Regular and natural channels,- Specific Load,- Gradually Variable Permanent Flow,- Calculation of the water line,- Hydraulic boss.</t>
   </si>
   <si>
     <t>Avaliação:</t>

--- a/assets/disciplinas/LOB1258.xlsx
+++ b/assets/disciplinas/LOB1258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer ao aluno os conceitos básicos de hidráulica aplicadas ao meio ambiente.</t>
+    <t>4780627 - Ana Lucia Gabas Ferreira</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,61 +82,49 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>4780627 - Ana Lucia Gabas Ferreira</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Permanent flow in pressure conduits. Head losses in pipelines. Pumping stations and hydraulic pumps. Permanente flow in free surface conduits, head losses in natural and artificial channels. Specific Energy in channels.</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>- Hydrostatic,- piezometry,- conservation of mass and amount of movement,- Permanent flows in Pipes,- Resistance to Flow and Load Losses,- Pumps and discharge systems,- Uniform Permanent Flow in Free Flues,- Resistance to flow and head losses,- Regular and natural channels,- Specific Load,- Gradually Variable Permanent Flow,- Calculation of the water line,- Hydraulic boss.</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Escoamento permanente uniforme em condutos forçados e perdas de carga nas tubulações. Instalações de bombeamento e bombas hidráulicas. Escoamento permanente uniforme em condutos livres, resistência ao escoamento e perdas de carga nos canais naturais e artificiais. Estudo da carga específica em canais.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Permanent flow in pressure conduits. Head losses in pipelines. Pumping stations and hydraulic pumps. Permanente flow in free surface conduits, head losses in natural and artificial channels. Specific Energy in channels.</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>- Hidrostática,- piezometria,- conservação da massa e quantidade de movimento,- Escoamentos Permanentes em Condutos Forçados,- Resistência ao Escoamento e Perdas de Carga,- Bombas e sistemas de recalque,- Escoamento Permanente Uniforme em Condutos Livres,- Resistência ao escoamento e Perdas de Carga,- Canais regulares e naturais,- Carga Específica,- Escoamento Permanente Gradualmente Variado,- Cálculo da linha d’água,- Ressalto Hidráulico.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>- Hydrostatic,- piezometry,- conservation of mass and amount of movement,- Permanent flows in Pipes,- Resistance to Flow and Load Losses,- Pumps and discharge systems,- Uniform Permanent Flow in Free Flues,- Resistance to flow and head losses,- Regular and natural channels,- Specific Load,- Gradually Variable Permanent Flow,- Calculation of the water line,- Hydraulic boss.</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos.Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>1 (uma) prova de recuperação (R), sendo considerado aprovado se 0,5(NF + R) &gt;= 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>Hauer, B.F. Lamberti, G.A. – Methods in Stream Ecology, 896 p, Academic Press, ISBN 0123329078, 2006Alfredini, Paolo; "Obras e Gestão de Portos e Costas - A Técnica Aliada ao Enfoque Logístico e Ambiental".Editora Edgard Blucher, São Paulo, 2005.ALFREDINI, P. - “Obras e Gestão de Portos e Costas - A Técnica Aliada ao Enfoque Logístico e Ambiental”. Editora Edgard Blucher, São Paulo, 2005.LENCASTRE, A. – “Hidráulica Geral”. Edição do Autor, Lisboa, 1996.OPEN UNIVERSITY COURSE TEAM – “Waves, tides and shallow water processes”. 1998ASSOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL, Rio de Janeiro, 1999. (Coordenação: Luiz Di Bernardo). ASSOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL, Rio de Janeiro, 200 (Coordenação: Marco A.P. Reali).</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -499,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,34 +618,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -668,30 +662,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -706,7 +700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -717,39 +711,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1258.xlsx
+++ b/assets/disciplinas/LOB1258.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,21 +70,30 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer ao aluno os conceitos básicos de hidráulica aplicadas ao meio ambiente.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide the students the basic concepts of hydraulic applied to the environment.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>4780627 - Ana Lucia Gabas Ferreira</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide the students the basic concepts of hydraulic applied to the environment.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>7455355 - Robson da Silva Rocha</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Escoamento permanente uniforme em condutos forçados e perdas de carga nas tubulações. Instalações de bombeamento e bombas hidráulicas. Escoamento permanente uniforme em condutos livres, resistência ao escoamento e perdas de carga nos canais naturais e artificiais. Estudo da carga específica em canais.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>- Hidrostática,- piezometria,- conservação da massa e quantidade de movimento,- Escoamentos Permanentes em Condutos Forçados,- Resistência ao Escoamento e Perdas de Carga,- Bombas e sistemas de recalque,- Escoamento Permanente Uniforme em Condutos Livres,- Resistência ao escoamento e Perdas de Carga,- Canais regulares e naturais,- Carga Específica,- Escoamento Permanente Gradualmente Variado,- Cálculo da linha d’água,- Ressalto Hidráulico.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +118,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>7455355 - Robson da Silva Rocha</t>
+    <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos.Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas teóricas e práticas, trabalhos de campo e exercícios dirigidos.Avaliação baseada em provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada das notas atribuídas às provas, exercícios e trabalhos práticos e relatórios.</t>
+    <t>1 (uma) prova de recuperação (R), sendo considerado aprovado se 0,5(NF + R) &gt;= 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1 (uma) prova de recuperação (R), sendo considerado aprovado se 0,5(NF + R) &gt;= 5,0.</t>
+    <t>Hauer, B.F. Lamberti, G.A. – Methods in Stream Ecology, 896 p, Academic Press, ISBN 0123329078, 2006Alfredini, Paolo; "Obras e Gestão de Portos e Costas - A Técnica Aliada ao Enfoque Logístico e Ambiental".Editora Edgard Blucher, São Paulo, 2005.ALFREDINI, P. - “Obras e Gestão de Portos e Costas - A Técnica Aliada ao Enfoque Logístico e Ambiental”. Editora Edgard Blucher, São Paulo, 2005.LENCASTRE, A. – “Hidráulica Geral”. Edição do Autor, Lisboa, 1996.OPEN UNIVERSITY COURSE TEAM – “Waves, tides and shallow water processes”. 1998ASSOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL, Rio de Janeiro, 1999. (Coordenação: Luiz Di Bernardo). ASSOCIAÇÃO BRASILEIRA DE ENGENHARIA SANITÁRIA E AMBIENTAL, Rio de Janeiro, 200 (Coordenação: Marco A.P. Reali).</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,40 +630,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -662,30 +668,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -700,7 +706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -711,17 +717,39 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
